--- a/Analytics/E0/CrossBookings_e0.xlsx
+++ b/Analytics/E0/CrossBookings_e0.xlsx
@@ -82,63 +82,63 @@
     <t>20</t>
   </si>
   <si>
+    <t>Aston Villa</t>
+  </si>
+  <si>
+    <t>Newcastle</t>
+  </si>
+  <si>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>Bournemouth</t>
+  </si>
+  <si>
+    <t>Chelsea</t>
+  </si>
+  <si>
+    <t>Man United</t>
+  </si>
+  <si>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>Fulham</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>Leicester</t>
+  </si>
+  <si>
+    <t>Nottm Forest</t>
+  </si>
+  <si>
+    <t>Man City</t>
+  </si>
+  <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
+    <t>Ipswich</t>
+  </si>
+  <si>
+    <t>Wolves</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
     <t>Tottenham</t>
   </si>
   <si>
-    <t>Wolves</t>
-  </si>
-  <si>
-    <t>Aston Villa</t>
-  </si>
-  <si>
-    <t>Chelsea</t>
+    <t>West Ham</t>
   </si>
   <si>
     <t>Brentford</t>
   </si>
   <si>
-    <t>Bournemouth</t>
-  </si>
-  <si>
-    <t>Nottm Forest</t>
-  </si>
-  <si>
-    <t>Newcastle</t>
-  </si>
-  <si>
-    <t>Brighton</t>
-  </si>
-  <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>Man City</t>
-  </si>
-  <si>
-    <t>Arsenal</t>
-  </si>
-  <si>
-    <t>Crystal Palace</t>
-  </si>
-  <si>
-    <t>Man United</t>
-  </si>
-  <si>
-    <t>Luton</t>
-  </si>
-  <si>
-    <t>West Ham</t>
-  </si>
-  <si>
-    <t>Burnley</t>
-  </si>
-  <si>
-    <t>Sheffield United</t>
-  </si>
-  <si>
-    <t>Fulham</t>
-  </si>
-  <si>
     <t>Everton</t>
   </si>
   <si>
@@ -148,7 +148,7 @@
     <t>SUM("TCrossBookings")</t>
   </si>
   <si>
-    <t>SUM("TCrossBookings") / 38</t>
+    <t>SUM("TCrossBookings") / 10</t>
   </si>
 </sst>
 </file>
@@ -216,7 +216,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>20200.0</v>
+        <v>7200.0</v>
       </c>
     </row>
     <row r="3">
@@ -227,7 +227,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>17850.0</v>
+        <v>7000.0</v>
       </c>
     </row>
     <row r="4">
@@ -238,7 +238,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>14600.0</v>
+        <v>6950.0</v>
       </c>
     </row>
     <row r="5">
@@ -249,7 +249,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>13350.0</v>
+        <v>6750.0</v>
       </c>
     </row>
     <row r="6">
@@ -260,7 +260,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>12875.0</v>
+        <v>6000.0</v>
       </c>
     </row>
     <row r="7">
@@ -271,7 +271,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>11200.0</v>
+        <v>4850.0</v>
       </c>
     </row>
     <row r="8">
@@ -282,7 +282,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>11150.0</v>
+        <v>4650.0</v>
       </c>
     </row>
     <row r="9">
@@ -293,7 +293,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>11100.0</v>
+        <v>4225.0</v>
       </c>
     </row>
     <row r="10">
@@ -304,7 +304,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>10650.0</v>
+        <v>3900.0</v>
       </c>
     </row>
     <row r="11">
@@ -315,7 +315,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>10150.0</v>
+        <v>3700.0</v>
       </c>
     </row>
     <row r="12">
@@ -326,7 +326,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>9850.0</v>
+        <v>3350.0</v>
       </c>
     </row>
     <row r="13">
@@ -337,7 +337,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>9650.0</v>
+        <v>3350.0</v>
       </c>
     </row>
     <row r="14">
@@ -348,7 +348,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>9550.0</v>
+        <v>2800.0</v>
       </c>
     </row>
     <row r="15">
@@ -359,7 +359,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>8800.0</v>
+        <v>2700.0</v>
       </c>
     </row>
     <row r="16">
@@ -370,7 +370,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>8500.0</v>
+        <v>2700.0</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +381,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>7750.0</v>
+        <v>2700.0</v>
       </c>
     </row>
     <row r="18">
@@ -392,7 +392,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>7500.0</v>
+        <v>2350.0</v>
       </c>
     </row>
     <row r="19">
@@ -403,7 +403,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>7375.0</v>
+        <v>2300.0</v>
       </c>
     </row>
     <row r="20">
@@ -414,7 +414,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>6500.0</v>
+        <v>1900.0</v>
       </c>
     </row>
     <row r="21">
@@ -425,7 +425,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>5800.0</v>
+        <v>950.0</v>
       </c>
     </row>
   </sheetData>
@@ -455,10 +455,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>18350.0</v>
+        <v>8800.0</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C3" t="n">
-        <v>16950.0</v>
+        <v>8150.0</v>
       </c>
     </row>
     <row r="4">
@@ -477,10 +477,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C4" t="n">
-        <v>14800.0</v>
+        <v>5950.0</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C5" t="n">
-        <v>14325.0</v>
+        <v>5700.0</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
       <c r="C6" t="n">
-        <v>13950.0</v>
+        <v>5625.0</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>13650.0</v>
+        <v>5500.0</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C8" t="n">
-        <v>12100.0</v>
+        <v>4900.0</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="C9" t="n">
-        <v>10800.0</v>
+        <v>4750.0</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C10" t="n">
-        <v>10500.0</v>
+        <v>3400.0</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>10000.0</v>
+        <v>3300.0</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C12" t="n">
-        <v>9575.0</v>
+        <v>3300.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C13" t="n">
-        <v>9550.0</v>
+        <v>2900.0</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C14" t="n">
-        <v>9500.0</v>
+        <v>2900.0</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C15" t="n">
-        <v>9200.0</v>
+        <v>2550.0</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
-        <v>8100.0</v>
+        <v>2500.0</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C17" t="n">
-        <v>7800.0</v>
+        <v>2300.0</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C18" t="n">
-        <v>7400.0</v>
+        <v>2300.0</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C19" t="n">
-        <v>6650.0</v>
+        <v>2200.0</v>
       </c>
     </row>
     <row r="20">
@@ -653,10 +653,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>5900.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="21">
@@ -664,10 +664,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>5300.0</v>
+        <v>1500.0</v>
       </c>
     </row>
   </sheetData>
@@ -700,13 +700,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>31000.0</v>
+        <v>14800.0</v>
       </c>
       <c r="D2" t="n">
-        <v>815.7894736842105</v>
+        <v>1480.0</v>
       </c>
     </row>
     <row r="3">
@@ -714,13 +714,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C3" t="n">
-        <v>30300.0</v>
+        <v>12825.0</v>
       </c>
       <c r="D3" t="n">
-        <v>797.3684210526316</v>
+        <v>1282.5</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C4" t="n">
-        <v>29000.0</v>
+        <v>12250.0</v>
       </c>
       <c r="D4" t="n">
-        <v>763.1578947368421</v>
+        <v>1225.0</v>
       </c>
     </row>
     <row r="5">
@@ -742,13 +742,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="C5" t="n">
-        <v>28925.0</v>
+        <v>11500.0</v>
       </c>
       <c r="D5" t="n">
-        <v>761.1842105263158</v>
+        <v>1150.0</v>
       </c>
     </row>
     <row r="6">
@@ -759,10 +759,10 @@
         <v>23</v>
       </c>
       <c r="C6" t="n">
-        <v>27400.0</v>
+        <v>10300.0</v>
       </c>
       <c r="D6" t="n">
-        <v>721.0526315789474</v>
+        <v>1030.0</v>
       </c>
     </row>
     <row r="7">
@@ -770,13 +770,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C7" t="n">
-        <v>25950.0</v>
+        <v>10250.0</v>
       </c>
       <c r="D7" t="n">
-        <v>682.8947368421053</v>
+        <v>1025.0</v>
       </c>
     </row>
     <row r="8">
@@ -787,10 +787,10 @@
         <v>31</v>
       </c>
       <c r="C8" t="n">
-        <v>23800.0</v>
+        <v>8450.0</v>
       </c>
       <c r="D8" t="n">
-        <v>626.3157894736842</v>
+        <v>845.0</v>
       </c>
     </row>
     <row r="9">
@@ -798,13 +798,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C9" t="n">
-        <v>22875.0</v>
+        <v>8400.0</v>
       </c>
       <c r="D9" t="n">
-        <v>601.9736842105264</v>
+        <v>840.0</v>
       </c>
     </row>
     <row r="10">
@@ -812,13 +812,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="C10" t="n">
-        <v>21600.0</v>
+        <v>8300.0</v>
       </c>
       <c r="D10" t="n">
-        <v>568.421052631579</v>
+        <v>830.0</v>
       </c>
     </row>
     <row r="11">
@@ -826,13 +826,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C11" t="n">
-        <v>21450.0</v>
+        <v>7750.0</v>
       </c>
       <c r="D11" t="n">
-        <v>564.4736842105264</v>
+        <v>775.0</v>
       </c>
     </row>
     <row r="12">
@@ -840,13 +840,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="C12" t="n">
-        <v>20700.0</v>
+        <v>7600.0</v>
       </c>
       <c r="D12" t="n">
-        <v>544.7368421052631</v>
+        <v>760.0</v>
       </c>
     </row>
     <row r="13">
@@ -854,13 +854,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C13" t="n">
-        <v>19475.0</v>
+        <v>7200.0</v>
       </c>
       <c r="D13" t="n">
-        <v>512.5</v>
+        <v>720.0</v>
       </c>
     </row>
     <row r="14">
@@ -868,13 +868,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C14" t="n">
-        <v>18000.0</v>
+        <v>6425.0</v>
       </c>
       <c r="D14" t="n">
-        <v>473.6842105263158</v>
+        <v>642.5</v>
       </c>
     </row>
     <row r="15">
@@ -882,13 +882,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C15" t="n">
-        <v>17950.0</v>
+        <v>6400.0</v>
       </c>
       <c r="D15" t="n">
-        <v>472.36842105263156</v>
+        <v>640.0</v>
       </c>
     </row>
     <row r="16">
@@ -896,13 +896,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C16" t="n">
-        <v>17325.0</v>
+        <v>6250.0</v>
       </c>
       <c r="D16" t="n">
-        <v>455.92105263157896</v>
+        <v>625.0</v>
       </c>
     </row>
     <row r="17">
@@ -910,13 +910,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" t="n">
-        <v>16200.0</v>
+        <v>6100.0</v>
       </c>
       <c r="D17" t="n">
-        <v>426.3157894736842</v>
+        <v>610.0</v>
       </c>
     </row>
     <row r="18">
@@ -924,13 +924,13 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C18" t="n">
-        <v>15550.0</v>
+        <v>5100.0</v>
       </c>
       <c r="D18" t="n">
-        <v>409.2105263157895</v>
+        <v>510.0</v>
       </c>
     </row>
     <row r="19">
@@ -941,10 +941,10 @@
         <v>40</v>
       </c>
       <c r="C19" t="n">
-        <v>13900.0</v>
+        <v>3700.0</v>
       </c>
       <c r="D19" t="n">
-        <v>365.7894736842105</v>
+        <v>370.0</v>
       </c>
     </row>
     <row r="20">
@@ -952,13 +952,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C20" t="n">
-        <v>13800.0</v>
+        <v>2450.0</v>
       </c>
       <c r="D20" t="n">
-        <v>363.1578947368421</v>
+        <v>245.0</v>
       </c>
     </row>
     <row r="21">
@@ -966,13 +966,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C21" t="n">
-        <v>13600.0</v>
+        <v>2300.0</v>
       </c>
       <c r="D21" t="n">
-        <v>357.89473684210526</v>
+        <v>230.0</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/E0/CrossBookings_e0.xlsx
+++ b/Analytics/E0/CrossBookings_e0.xlsx
@@ -82,12 +82,12 @@
     <t>20</t>
   </si>
   <si>
+    <t>Newcastle</t>
+  </si>
+  <si>
     <t>Aston Villa</t>
   </si>
   <si>
-    <t>Newcastle</t>
-  </si>
-  <si>
     <t>Southampton</t>
   </si>
   <si>
@@ -97,43 +97,43 @@
     <t>Chelsea</t>
   </si>
   <si>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>Liverpool</t>
+  </si>
+  <si>
+    <t>Leicester</t>
+  </si>
+  <si>
     <t>Man United</t>
   </si>
   <si>
-    <t>Brighton</t>
-  </si>
-  <si>
     <t>Fulham</t>
   </si>
   <si>
-    <t>Liverpool</t>
-  </si>
-  <si>
-    <t>Leicester</t>
+    <t>Man City</t>
+  </si>
+  <si>
+    <t>West Ham</t>
+  </si>
+  <si>
+    <t>Crystal Palace</t>
+  </si>
+  <si>
+    <t>Wolves</t>
   </si>
   <si>
     <t>Nottm Forest</t>
   </si>
   <si>
-    <t>Man City</t>
-  </si>
-  <si>
-    <t>Crystal Palace</t>
-  </si>
-  <si>
     <t>Ipswich</t>
   </si>
   <si>
-    <t>Wolves</t>
-  </si>
-  <si>
     <t>Arsenal</t>
   </si>
   <si>
     <t>Tottenham</t>
-  </si>
-  <si>
-    <t>West Ham</t>
   </si>
   <si>
     <t>Brentford</t>
@@ -216,7 +216,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="n">
-        <v>7200.0</v>
+        <v>8900.0</v>
       </c>
     </row>
     <row r="3">
@@ -227,7 +227,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="n">
-        <v>7000.0</v>
+        <v>8500.0</v>
       </c>
     </row>
     <row r="4">
@@ -238,7 +238,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="n">
-        <v>6950.0</v>
+        <v>8450.0</v>
       </c>
     </row>
     <row r="5">
@@ -249,7 +249,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="n">
-        <v>6750.0</v>
+        <v>8050.0</v>
       </c>
     </row>
     <row r="6">
@@ -260,7 +260,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>6000.0</v>
+        <v>7700.0</v>
       </c>
     </row>
     <row r="7">
@@ -271,7 +271,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>4850.0</v>
+        <v>6750.0</v>
       </c>
     </row>
     <row r="8">
@@ -282,7 +282,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>4650.0</v>
+        <v>6400.0</v>
       </c>
     </row>
     <row r="9">
@@ -293,7 +293,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>4225.0</v>
+        <v>5500.0</v>
       </c>
     </row>
     <row r="10">
@@ -304,7 +304,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="n">
-        <v>3900.0</v>
+        <v>5450.0</v>
       </c>
     </row>
     <row r="11">
@@ -315,7 +315,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>3700.0</v>
+        <v>5425.0</v>
       </c>
     </row>
     <row r="12">
@@ -326,7 +326,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="n">
-        <v>3350.0</v>
+        <v>5050.0</v>
       </c>
     </row>
     <row r="13">
@@ -337,7 +337,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="n">
-        <v>3350.0</v>
+        <v>4900.0</v>
       </c>
     </row>
     <row r="14">
@@ -348,7 +348,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="n">
-        <v>2800.0</v>
+        <v>4300.0</v>
       </c>
     </row>
     <row r="15">
@@ -359,7 +359,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="n">
-        <v>2700.0</v>
+        <v>4000.0</v>
       </c>
     </row>
     <row r="16">
@@ -370,7 +370,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>2700.0</v>
+        <v>3750.0</v>
       </c>
     </row>
     <row r="17">
@@ -381,7 +381,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>2700.0</v>
+        <v>3700.0</v>
       </c>
     </row>
     <row r="18">
@@ -392,7 +392,7 @@
         <v>38</v>
       </c>
       <c r="C18" t="n">
-        <v>2350.0</v>
+        <v>3600.0</v>
       </c>
     </row>
     <row r="19">
@@ -403,7 +403,7 @@
         <v>39</v>
       </c>
       <c r="C19" t="n">
-        <v>2300.0</v>
+        <v>3250.0</v>
       </c>
     </row>
     <row r="20">
@@ -414,7 +414,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>1900.0</v>
+        <v>2800.0</v>
       </c>
     </row>
     <row r="21">
@@ -458,7 +458,7 @@
         <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>8800.0</v>
+        <v>10400.0</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C3" t="n">
-        <v>8150.0</v>
+        <v>9550.0</v>
       </c>
     </row>
     <row r="4">
@@ -480,7 +480,7 @@
         <v>38</v>
       </c>
       <c r="C4" t="n">
-        <v>5950.0</v>
+        <v>7700.0</v>
       </c>
     </row>
     <row r="5">
@@ -488,10 +488,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C5" t="n">
-        <v>5700.0</v>
+        <v>7450.0</v>
       </c>
     </row>
     <row r="6">
@@ -499,10 +499,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>5625.0</v>
+        <v>6900.0</v>
       </c>
     </row>
     <row r="7">
@@ -510,10 +510,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C7" t="n">
-        <v>5500.0</v>
+        <v>6900.0</v>
       </c>
     </row>
     <row r="8">
@@ -521,10 +521,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C8" t="n">
-        <v>4900.0</v>
+        <v>6025.0</v>
       </c>
     </row>
     <row r="9">
@@ -532,10 +532,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>4750.0</v>
+        <v>5750.0</v>
       </c>
     </row>
     <row r="10">
@@ -543,10 +543,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C10" t="n">
-        <v>3400.0</v>
+        <v>4800.0</v>
       </c>
     </row>
     <row r="11">
@@ -554,10 +554,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>3300.0</v>
+        <v>4750.0</v>
       </c>
     </row>
     <row r="12">
@@ -565,10 +565,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C12" t="n">
-        <v>3300.0</v>
+        <v>4700.0</v>
       </c>
     </row>
     <row r="13">
@@ -576,10 +576,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="C13" t="n">
-        <v>2900.0</v>
+        <v>4700.0</v>
       </c>
     </row>
     <row r="14">
@@ -587,10 +587,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" t="n">
-        <v>2900.0</v>
+        <v>4350.0</v>
       </c>
     </row>
     <row r="15">
@@ -598,10 +598,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C15" t="n">
-        <v>2550.0</v>
+        <v>4300.0</v>
       </c>
     </row>
     <row r="16">
@@ -609,10 +609,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C16" t="n">
-        <v>2500.0</v>
+        <v>4100.0</v>
       </c>
     </row>
     <row r="17">
@@ -620,10 +620,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="C17" t="n">
-        <v>2300.0</v>
+        <v>4050.0</v>
       </c>
     </row>
     <row r="18">
@@ -631,10 +631,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C18" t="n">
-        <v>2300.0</v>
+        <v>3300.0</v>
       </c>
     </row>
     <row r="19">
@@ -642,10 +642,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C19" t="n">
-        <v>2200.0</v>
+        <v>2700.0</v>
       </c>
     </row>
     <row r="20">
@@ -656,7 +656,7 @@
         <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>1800.0</v>
+        <v>2700.0</v>
       </c>
     </row>
     <row r="21">
@@ -667,7 +667,7 @@
         <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>1500.0</v>
+        <v>2300.0</v>
       </c>
     </row>
   </sheetData>
@@ -703,10 +703,10 @@
         <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>14800.0</v>
+        <v>18100.0</v>
       </c>
       <c r="D2" t="n">
-        <v>1480.0</v>
+        <v>1810.0</v>
       </c>
     </row>
     <row r="3">
@@ -714,13 +714,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="n">
-        <v>12825.0</v>
+        <v>14950.0</v>
       </c>
       <c r="D3" t="n">
-        <v>1282.5</v>
+        <v>1495.0</v>
       </c>
     </row>
     <row r="4">
@@ -728,13 +728,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="n">
-        <v>12250.0</v>
+        <v>14525.0</v>
       </c>
       <c r="D4" t="n">
-        <v>1225.0</v>
+        <v>1452.5</v>
       </c>
     </row>
     <row r="5">
@@ -742,13 +742,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C5" t="n">
-        <v>11500.0</v>
+        <v>13300.0</v>
       </c>
       <c r="D5" t="n">
-        <v>1150.0</v>
+        <v>1330.0</v>
       </c>
     </row>
     <row r="6">
@@ -756,13 +756,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="n">
-        <v>10300.0</v>
+        <v>13250.0</v>
       </c>
       <c r="D6" t="n">
-        <v>1030.0</v>
+        <v>1325.0</v>
       </c>
     </row>
     <row r="7">
@@ -770,13 +770,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C7" t="n">
-        <v>10250.0</v>
+        <v>13200.0</v>
       </c>
       <c r="D7" t="n">
-        <v>1025.0</v>
+        <v>1320.0</v>
       </c>
     </row>
     <row r="8">
@@ -784,13 +784,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C8" t="n">
-        <v>8450.0</v>
+        <v>11300.0</v>
       </c>
       <c r="D8" t="n">
-        <v>845.0</v>
+        <v>1130.0</v>
       </c>
     </row>
     <row r="9">
@@ -798,13 +798,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>8400.0</v>
+        <v>11250.0</v>
       </c>
       <c r="D9" t="n">
-        <v>840.0</v>
+        <v>1125.0</v>
       </c>
     </row>
     <row r="10">
@@ -812,13 +812,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C10" t="n">
-        <v>8300.0</v>
+        <v>11100.0</v>
       </c>
       <c r="D10" t="n">
-        <v>830.0</v>
+        <v>1110.0</v>
       </c>
     </row>
     <row r="11">
@@ -826,13 +826,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C11" t="n">
-        <v>7750.0</v>
+        <v>10900.0</v>
       </c>
       <c r="D11" t="n">
-        <v>775.0</v>
+        <v>1090.0</v>
       </c>
     </row>
     <row r="12">
@@ -840,13 +840,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C12" t="n">
-        <v>7600.0</v>
+        <v>10800.0</v>
       </c>
       <c r="D12" t="n">
-        <v>760.0</v>
+        <v>1080.0</v>
       </c>
     </row>
     <row r="13">
@@ -854,13 +854,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C13" t="n">
-        <v>7200.0</v>
+        <v>10700.0</v>
       </c>
       <c r="D13" t="n">
-        <v>720.0</v>
+        <v>1070.0</v>
       </c>
     </row>
     <row r="14">
@@ -868,13 +868,13 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C14" t="n">
-        <v>6425.0</v>
+        <v>10175.0</v>
       </c>
       <c r="D14" t="n">
-        <v>642.5</v>
+        <v>1017.5</v>
       </c>
     </row>
     <row r="15">
@@ -882,13 +882,13 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15" t="n">
-        <v>6400.0</v>
+        <v>9400.0</v>
       </c>
       <c r="D15" t="n">
-        <v>640.0</v>
+        <v>940.0</v>
       </c>
     </row>
     <row r="16">
@@ -896,13 +896,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C16" t="n">
-        <v>6250.0</v>
+        <v>8750.0</v>
       </c>
       <c r="D16" t="n">
-        <v>625.0</v>
+        <v>875.0</v>
       </c>
     </row>
     <row r="17">
@@ -910,13 +910,13 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C17" t="n">
-        <v>6100.0</v>
+        <v>8400.0</v>
       </c>
       <c r="D17" t="n">
-        <v>610.0</v>
+        <v>840.0</v>
       </c>
     </row>
     <row r="18">
@@ -927,10 +927,10 @@
         <v>34</v>
       </c>
       <c r="C18" t="n">
-        <v>5100.0</v>
+        <v>8400.0</v>
       </c>
       <c r="D18" t="n">
-        <v>510.0</v>
+        <v>840.0</v>
       </c>
     </row>
     <row r="19">
@@ -938,13 +938,13 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C19" t="n">
-        <v>3700.0</v>
+        <v>7600.0</v>
       </c>
       <c r="D19" t="n">
-        <v>370.0</v>
+        <v>760.0</v>
       </c>
     </row>
     <row r="20">
@@ -952,13 +952,13 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" t="n">
-        <v>2450.0</v>
+        <v>5500.0</v>
       </c>
       <c r="D20" t="n">
-        <v>245.0</v>
+        <v>550.0</v>
       </c>
     </row>
     <row r="21">
@@ -966,13 +966,13 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C21" t="n">
-        <v>2300.0</v>
+        <v>3250.0</v>
       </c>
       <c r="D21" t="n">
-        <v>230.0</v>
+        <v>325.0</v>
       </c>
     </row>
   </sheetData>
